--- a/Config/App-Repo-Mapping.xlsx
+++ b/Config/App-Repo-Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAST\Development\VSCode\CASTHLAutomation\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD976356-95F8-4C78-8038-6ECECB348474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110651B-521B-4D22-B13E-97471F4F348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App-Repo-Mapping" sheetId="1" r:id="rId1"/>
@@ -952,6 +952,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
